--- a/AppFiles/Images/Logo/ITAssetBulkInsert.xlsx
+++ b/AppFiles/Images/Logo/ITAssetBulkInsert.xlsx
@@ -44,11 +44,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd/mmm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -64,27 +65,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,9 +90,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,51 +108,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -174,14 +125,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +138,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,11 +160,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -220,181 +221,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,17 +433,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,21 +483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -492,22 +498,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,156 +517,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,7 +997,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -1000,7 +1007,7 @@
     <col min="4" max="4" width="15.0909090909091" customWidth="1"/>
     <col min="5" max="5" width="17.9090909090909" customWidth="1"/>
     <col min="6" max="6" width="11.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="16.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="16.1818181818182" style="2" customWidth="1"/>
     <col min="8" max="9" width="7.63636363636364" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1023,7 +1030,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">

--- a/AppFiles/Images/Logo/ITAssetBulkInsert.xlsx
+++ b/AppFiles/Images/Logo/ITAssetBulkInsert.xlsx
@@ -45,11 +45,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd\/mmm\/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -69,7 +69,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,6 +85,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,6 +105,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -106,11 +137,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,39 +176,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,7 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,31 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,19 +221,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,37 +359,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,73 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,42 +402,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,11 +415,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,11 +454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,21 +476,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,17 +495,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,148 +517,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,7 +997,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>

--- a/AppFiles/Images/Logo/ITAssetBulkInsert.xlsx
+++ b/AppFiles/Images/Logo/ITAssetBulkInsert.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7110"/>
+    <workbookView windowWidth="19200" windowHeight="7110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ITAssetName</t>
   </si>
@@ -38,6 +39,21 @@
   </si>
   <si>
     <t>Vendor ID</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>1. Asset Type ID  should be a number.</t>
+  </si>
+  <si>
+    <t>2. ITAssetPrice  should be a number.</t>
+  </si>
+  <si>
+    <t>3. ITAssetWarranty should be as MM/DDD/YYYY. Ex: 09/Aug/2020.</t>
+  </si>
+  <si>
+    <t>4. Vendor ID should be a number.</t>
   </si>
 </sst>
 </file>
@@ -45,13 +61,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd\/mmm\/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd\/mmm\/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,13 +77,21 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -77,7 +101,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,13 +116,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,45 +130,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -154,7 +139,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +155,66 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,37 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,25 +245,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,157 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +436,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,81 +532,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,162 +541,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,8 +1026,8 @@
   <sheetPr/>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -1007,33 +1037,33 @@
     <col min="4" max="4" width="15.0909090909091" customWidth="1"/>
     <col min="5" max="5" width="17.9090909090909" customWidth="1"/>
     <col min="6" max="6" width="11.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="16.1818181818182" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.1818181818182" style="4" customWidth="1"/>
     <col min="8" max="9" width="7.63636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1041,4 +1071,60 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="52.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.5" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>